--- a/memorial/src/main/webapp/file/upload/form/분양 해약승인서_20190106142401632.xlsx
+++ b/memorial/src/main/webapp/file/upload/form/분양 해약승인서_20190106142401632.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F622F3EB-9533-4810-8AD3-9303AAFCB99C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="13905"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="관-3-1 분양 해약승인서" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'관-3-1 분양 해약승인서'!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -292,7 +298,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="000\-0000\-0000"/>
@@ -301,7 +307,7 @@
     <numFmt numFmtId="179" formatCode="\(&quot;₩&quot;#,##0\)"/>
     <numFmt numFmtId="180" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1239,6 +1245,234 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1269,27 +1503,9 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1301,228 +1517,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="통화 [0]" xfId="1" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="2"/>
+    <cellStyle name="표준 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1548,7 +1557,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BFBAD6-015C-4841-944F-4D0F7822AC3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BFBAD6-015C-4841-944F-4D0F7822AC3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1620,7 +1629,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1653,9 +1662,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1688,6 +1714,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1863,14 +1906,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:P41"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33:L33"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36:K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="2" width="3.125" style="63" customWidth="1"/>
@@ -1890,8 +1933,8 @@
     <col min="16" max="16" width="2.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15" ht="17.25" thickBot="1"/>
-    <row r="4" spans="3:15" ht="6.75" customHeight="1">
+    <row r="3" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="3:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1906,7 +1949,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="3:15" ht="17.25" thickBot="1">
+    <row r="5" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -1914,47 +1957,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:15" ht="17.25" thickBot="1">
+    <row r="6" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="158" t="s">
+      <c r="M6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="159"/>
+      <c r="N6" s="87"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="3:15" ht="17.25" thickBot="1">
+    <row r="7" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:15">
-      <c r="C8" s="160" t="s">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C8" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="161"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="163" t="s">
+      <c r="D8" s="89"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="164"/>
-      <c r="H8" s="165"/>
-      <c r="I8" s="163" t="s">
+      <c r="G8" s="92"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="164"/>
-      <c r="K8" s="165"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="93"/>
       <c r="L8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="163" t="s">
+      <c r="M8" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="164"/>
-      <c r="O8" s="166"/>
-    </row>
-    <row r="9" spans="3:15" ht="24.75" customHeight="1">
+      <c r="N8" s="92"/>
+      <c r="O8" s="94"/>
+    </row>
+    <row r="9" spans="3:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
@@ -1963,108 +2006,108 @@
         <v>10</v>
       </c>
       <c r="H9" s="10"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="167"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="82"/>
       <c r="L9" s="11"/>
-      <c r="M9" s="168"/>
-      <c r="N9" s="169"/>
-      <c r="O9" s="170"/>
-    </row>
-    <row r="10" spans="3:15">
+      <c r="M9" s="83"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="85"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="146" t="s">
+      <c r="D10" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="147"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="146" t="s">
+      <c r="E10" s="101"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="114"/>
-      <c r="M10" s="146" t="s">
+      <c r="L10" s="102"/>
+      <c r="M10" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="114"/>
-      <c r="O10" s="149"/>
-    </row>
-    <row r="11" spans="3:15" ht="42" customHeight="1">
+      <c r="N10" s="102"/>
+      <c r="O10" s="104"/>
+    </row>
+    <row r="11" spans="3:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="13"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="152"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="107"/>
       <c r="K11" s="7"/>
       <c r="L11" s="14"/>
-      <c r="M11" s="153"/>
-      <c r="N11" s="154"/>
-      <c r="O11" s="155"/>
-    </row>
-    <row r="12" spans="3:15" ht="19.5" customHeight="1">
+      <c r="M11" s="80"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="108"/>
+    </row>
+    <row r="12" spans="3:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="156" t="s">
+      <c r="D12" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="157"/>
-    </row>
-    <row r="13" spans="3:15" ht="15" customHeight="1">
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="110"/>
+      <c r="O12" s="111"/>
+    </row>
+    <row r="13" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="127" t="s">
+      <c r="D13" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128"/>
-      <c r="N13" s="128"/>
-      <c r="O13" s="129"/>
-    </row>
-    <row r="14" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="114"/>
+    </row>
+    <row r="14" spans="3:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="16"/>
-      <c r="D14" s="130" t="s">
+      <c r="D14" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="131"/>
-      <c r="K14" s="131"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="131"/>
-      <c r="N14" s="131"/>
-      <c r="O14" s="132"/>
-    </row>
-    <row r="15" spans="3:15">
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="116"/>
+      <c r="O14" s="117"/>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C15" s="17"/>
       <c r="D15" s="18"/>
       <c r="E15" s="19"/>
@@ -2089,7 +2132,7 @@
       </c>
       <c r="O15" s="20"/>
     </row>
-    <row r="16" spans="3:15">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C16" s="21" t="s">
         <v>24</v>
       </c>
@@ -2116,7 +2159,7 @@
       </c>
       <c r="O16" s="26"/>
     </row>
-    <row r="17" spans="3:16" ht="17.25" thickBot="1">
+    <row r="17" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="27"/>
       <c r="D17" s="28" t="s">
         <v>30</v>
@@ -2133,51 +2176,51 @@
       <c r="N17" s="29"/>
       <c r="O17" s="30"/>
     </row>
-    <row r="18" spans="3:16" ht="16.5" customHeight="1">
+    <row r="18" spans="3:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="31" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="133"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="135">
+      <c r="E18" s="118"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="120">
         <f>E18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="136"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="122"/>
       <c r="L18" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="138">
+      <c r="M18" s="123">
         <f>H19+H20</f>
         <v>0</v>
       </c>
-      <c r="N18" s="139"/>
-      <c r="O18" s="140"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="125"/>
       <c r="P18" s="34"/>
     </row>
-    <row r="19" spans="3:16" ht="16.5" customHeight="1">
+    <row r="19" spans="3:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="35" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="141"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="143">
+      <c r="E19" s="95"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="97">
         <f>E19</f>
         <v>0</v>
       </c>
-      <c r="I19" s="144"/>
-      <c r="J19" s="145"/>
-      <c r="K19" s="145"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
       <c r="L19" s="37" t="s">
         <v>35</v>
       </c>
@@ -2185,23 +2228,23 @@
       <c r="N19" s="23"/>
       <c r="O19" s="26"/>
     </row>
-    <row r="20" spans="3:16" ht="16.5" customHeight="1">
+    <row r="20" spans="3:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="39" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="117">
+      <c r="E20" s="130"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="132">
         <f>E20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="118"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="119"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
       <c r="L20" s="41" t="s">
         <v>38</v>
       </c>
@@ -2209,106 +2252,103 @@
       <c r="N20" s="43"/>
       <c r="O20" s="44"/>
     </row>
-    <row r="21" spans="3:16" ht="39" customHeight="1">
+    <row r="21" spans="3:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="120"/>
-      <c r="O21" s="121"/>
-    </row>
-    <row r="22" spans="3:16" ht="16.5" customHeight="1">
+      <c r="D21" s="134"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="134"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134"/>
+      <c r="N21" s="134"/>
+      <c r="O21" s="135"/>
+    </row>
+    <row r="22" spans="3:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="45" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="122">
-        <f>E19/2 +E20</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="92">
+      <c r="E22" s="136"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="138">
         <f>E22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="93"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="140"/>
+      <c r="K22" s="140"/>
       <c r="L22" s="47"/>
       <c r="M22" s="48"/>
       <c r="N22" s="49"/>
       <c r="O22" s="50"/>
     </row>
-    <row r="23" spans="3:16" ht="26.25" customHeight="1">
+    <row r="23" spans="3:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="51" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="124"/>
-      <c r="F23" s="91"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="142"/>
       <c r="G23" s="52" t="s">
         <v>44</v>
       </c>
       <c r="H23" s="53"/>
       <c r="I23" s="54"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="126"/>
-      <c r="L23" s="96"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="144"/>
+      <c r="L23" s="145"/>
       <c r="M23" s="55" t="s">
         <v>45</v>
       </c>
       <c r="N23" s="56"/>
       <c r="O23" s="57"/>
     </row>
-    <row r="24" spans="3:16" ht="16.5" customHeight="1">
-      <c r="C24" s="101" t="s">
+    <row r="24" spans="3:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="102"/>
-    </row>
-    <row r="25" spans="3:16" ht="16.5" customHeight="1">
+      <c r="D24" s="147"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="147"/>
+      <c r="K24" s="147"/>
+      <c r="L24" s="147"/>
+      <c r="M24" s="147"/>
+      <c r="N24" s="147"/>
+      <c r="O24" s="148"/>
+    </row>
+    <row r="25" spans="3:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="58" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="56"/>
       <c r="E25" s="56"/>
       <c r="F25" s="59"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="103"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
       <c r="L25" s="49"/>
       <c r="M25" s="49"/>
       <c r="N25" s="49"/>
       <c r="O25" s="50"/>
     </row>
-    <row r="26" spans="3:16" ht="25.5" customHeight="1">
+    <row r="26" spans="3:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="58" t="s">
         <v>48</v>
       </c>
@@ -2317,9 +2357,9 @@
       <c r="F26" s="56"/>
       <c r="G26" s="56"/>
       <c r="H26" s="59"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="104"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="129"/>
       <c r="L26" s="49" t="s">
         <v>49</v>
       </c>
@@ -2327,24 +2367,24 @@
       <c r="N26" s="49"/>
       <c r="O26" s="50"/>
     </row>
-    <row r="27" spans="3:16" ht="47.25" customHeight="1" thickBot="1">
-      <c r="C27" s="105" t="s">
+    <row r="27" spans="3:16" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="150" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="106"/>
-      <c r="N27" s="106"/>
-      <c r="O27" s="107"/>
-    </row>
-    <row r="28" spans="3:16" ht="15" customHeight="1">
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="151"/>
+      <c r="K27" s="151"/>
+      <c r="L27" s="151"/>
+      <c r="M27" s="151"/>
+      <c r="N27" s="151"/>
+      <c r="O27" s="152"/>
+    </row>
+    <row r="28" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="60"/>
       <c r="D28" s="61"/>
       <c r="E28" s="61"/>
@@ -2359,57 +2399,57 @@
       <c r="N28" s="61"/>
       <c r="O28" s="61"/>
     </row>
-    <row r="29" spans="3:16" ht="15" customHeight="1" thickBot="1">
+    <row r="29" spans="3:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C29" s="62" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="3:16" ht="17.25" hidden="1" thickBot="1">
+    <row r="30" spans="3:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="3:16" ht="17.25" hidden="1" thickBot="1"/>
-    <row r="32" spans="3:16" ht="37.5" customHeight="1">
-      <c r="C32" s="108" t="s">
+    <row r="31" spans="3:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="3:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="109"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="109"/>
-      <c r="L32" s="109"/>
-      <c r="M32" s="109"/>
-      <c r="N32" s="109"/>
-      <c r="O32" s="110"/>
-    </row>
-    <row r="33" spans="2:15" ht="24.75" customHeight="1">
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="154"/>
+      <c r="I32" s="154"/>
+      <c r="J32" s="154"/>
+      <c r="K32" s="154"/>
+      <c r="L32" s="154"/>
+      <c r="M32" s="154"/>
+      <c r="N32" s="154"/>
+      <c r="O32" s="155"/>
+    </row>
+    <row r="33" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="111"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="113" t="s">
+      <c r="D33" s="126"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="H33" s="114"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="104"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="129"/>
       <c r="M33" s="49" t="s">
         <v>56</v>
       </c>
       <c r="N33" s="49"/>
       <c r="O33" s="50"/>
     </row>
-    <row r="34" spans="2:15" ht="18" customHeight="1">
-      <c r="C34" s="86" t="s">
+    <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="162" t="s">
         <v>57</v>
       </c>
       <c r="D34" s="65"/>
@@ -2417,63 +2457,60 @@
         <v>58</v>
       </c>
       <c r="F34" s="65"/>
-      <c r="G34" s="89">
-        <f>E19/2</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="92">
+      <c r="G34" s="165"/>
+      <c r="H34" s="147"/>
+      <c r="I34" s="147"/>
+      <c r="J34" s="147"/>
+      <c r="K34" s="142"/>
+      <c r="L34" s="138">
         <f>G34</f>
         <v>0</v>
       </c>
-      <c r="M34" s="93"/>
-      <c r="N34" s="94"/>
+      <c r="M34" s="139"/>
+      <c r="N34" s="140"/>
       <c r="O34" s="50"/>
     </row>
-    <row r="35" spans="2:15" ht="19.5" customHeight="1">
-      <c r="C35" s="87"/>
+    <row r="35" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="163"/>
       <c r="D35" s="59"/>
-      <c r="E35" s="95" t="s">
+      <c r="E35" s="166" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="96"/>
-      <c r="G35" s="89">
+      <c r="F35" s="145"/>
+      <c r="G35" s="165">
         <f>H22</f>
         <v>0</v>
       </c>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="92">
+      <c r="H35" s="147"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="147"/>
+      <c r="K35" s="142"/>
+      <c r="L35" s="138">
         <f>G35</f>
         <v>0</v>
       </c>
-      <c r="M35" s="93"/>
-      <c r="N35" s="94"/>
+      <c r="M35" s="139"/>
+      <c r="N35" s="140"/>
       <c r="O35" s="50"/>
     </row>
-    <row r="36" spans="2:15" ht="18.75" customHeight="1" thickBot="1">
-      <c r="C36" s="88"/>
+    <row r="36" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="164"/>
       <c r="D36" s="67"/>
       <c r="E36" s="68" t="s">
         <v>60</v>
       </c>
       <c r="F36" s="67"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="98"/>
-      <c r="I36" s="98"/>
-      <c r="J36" s="98"/>
-      <c r="K36" s="99"/>
-      <c r="L36" s="100"/>
-      <c r="M36" s="100"/>
-      <c r="N36" s="100"/>
+      <c r="G36" s="167"/>
+      <c r="H36" s="168"/>
+      <c r="I36" s="168"/>
+      <c r="J36" s="168"/>
+      <c r="K36" s="169"/>
+      <c r="L36" s="170"/>
+      <c r="M36" s="170"/>
+      <c r="N36" s="170"/>
       <c r="O36" s="69"/>
     </row>
-    <row r="37" spans="2:15" ht="10.5" customHeight="1">
+    <row r="37" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="70"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -2488,45 +2525,45 @@
       <c r="N37" s="1"/>
       <c r="O37" s="71"/>
     </row>
-    <row r="38" spans="2:15" ht="17.25">
+    <row r="38" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B38"/>
       <c r="C38" s="72"/>
       <c r="E38" s="73"/>
       <c r="F38" s="74"/>
-      <c r="G38" s="80">
+      <c r="G38" s="156">
         <f>D33</f>
         <v>0</v>
       </c>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="82"/>
+      <c r="H38" s="157"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="157"/>
+      <c r="K38" s="158"/>
       <c r="O38" s="75"/>
     </row>
-    <row r="39" spans="2:15" ht="9.75" customHeight="1">
+    <row r="39" spans="2:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39"/>
       <c r="C39" s="72"/>
       <c r="O39" s="75"/>
     </row>
-    <row r="40" spans="2:15" ht="26.25">
+    <row r="40" spans="2:15" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B40" s="76"/>
-      <c r="C40" s="83" t="s">
+      <c r="C40" s="159" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="84"/>
-      <c r="L40" s="84"/>
-      <c r="M40" s="84"/>
-      <c r="N40" s="84"/>
-      <c r="O40" s="85"/>
-    </row>
-    <row r="41" spans="2:15" ht="17.25" thickBot="1">
+      <c r="D40" s="160"/>
+      <c r="E40" s="160"/>
+      <c r="F40" s="160"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="160"/>
+      <c r="J40" s="160"/>
+      <c r="K40" s="160"/>
+      <c r="L40" s="160"/>
+      <c r="M40" s="160"/>
+      <c r="N40" s="160"/>
+      <c r="O40" s="161"/>
+    </row>
+    <row r="41" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C41" s="77"/>
       <c r="D41" s="78"/>
       <c r="E41" s="78"/>
@@ -2543,26 +2580,16 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="D12:O12"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="C40:O40"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="L36:N36"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="J33:L33"/>
@@ -2578,16 +2605,26 @@
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="C27:O27"/>
     <mergeCell ref="C32:O32"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="C40:O40"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="D12:O12"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="M8:O8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
